--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -590,7 +590,7 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F10">
         <v>594</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.98</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F11">
         <v>602</v>
@@ -630,7 +630,7 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>9.09</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F12">
         <v>614</v>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.75</v>
+        <v>7.46</v>
       </c>
       <c r="F13">
         <v>522</v>
@@ -670,7 +670,7 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="F14">
         <v>320</v>
@@ -690,7 +690,7 @@
         <v>3.1</v>
       </c>
       <c r="E15">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F15">
         <v>57</v>
@@ -1027,7 +1027,7 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>40.35</v>
+        <v>38.83</v>
       </c>
       <c r="F32">
         <v>2709</v>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -590,7 +590,7 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.550000000000001</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F10">
         <v>594</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.619999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="F11">
         <v>602</v>
@@ -630,7 +630,7 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>8.699999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="F12">
         <v>614</v>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.46</v>
+        <v>7.32</v>
       </c>
       <c r="F13">
         <v>522</v>
@@ -670,7 +670,7 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.67</v>
+        <v>4.62</v>
       </c>
       <c r="F14">
         <v>320</v>
@@ -1027,7 +1027,7 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>38.83</v>
+        <v>38.09999999999999</v>
       </c>
       <c r="F32">
         <v>2709</v>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -590,10 +590,10 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.380000000000001</v>
+        <v>3641.44</v>
       </c>
       <c r="F10">
-        <v>594</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.44</v>
+        <v>3743.33</v>
       </c>
       <c r="F11">
-        <v>602</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -630,10 +630,10 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>8.51</v>
+        <v>4000.74</v>
       </c>
       <c r="F12">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.32</v>
+        <v>3496.19</v>
       </c>
       <c r="F13">
-        <v>522</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -670,10 +670,10 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.62</v>
+        <v>2136.9</v>
       </c>
       <c r="F14">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -690,10 +690,10 @@
         <v>3.1</v>
       </c>
       <c r="E15">
-        <v>0.83</v>
+        <v>354.9</v>
       </c>
       <c r="F15">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1027,10 +1027,10 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>38.09999999999999</v>
+        <v>17373.5</v>
       </c>
       <c r="F32">
-        <v>2709</v>
+        <v>2419</v>
       </c>
     </row>
   </sheetData>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -22,13 +22,13 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tamb</t>
+    <t>Tamb [°C]</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Power [W]</t>
   </si>
   <si>
-    <t>Effective_Irradiance</t>
+    <t>Effective Irradiance [W/m^2]</t>
   </si>
   <si>
     <t>Total</t>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>43466</v>
+        <v>43466.33333333334</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3612.35</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43466.375</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>43466.04166666666</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>3708.11</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -461,19 +461,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>43466.08333333334</v>
+        <v>43466.41666666666</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3965.18</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -481,19 +481,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>43466.125</v>
+        <v>43466.45833333334</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3465.68</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -501,19 +501,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>43466.16666666666</v>
+        <v>43466.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2117.35</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -521,19 +521,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>43466.20833333334</v>
+        <v>43466.54166666666</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>351.17</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -541,13 +541,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>43466.25</v>
+        <v>43466.58333333334</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>43466.29166666666</v>
+        <v>43466.625</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -581,19 +581,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>43466.33333333334</v>
+        <v>43466.66666666666</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="E10">
-        <v>3641.44</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -601,19 +601,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>43466.375</v>
+        <v>43466.70833333334</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E11">
-        <v>3743.33</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -621,19 +621,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>43466.41666666666</v>
+        <v>43466.75</v>
       </c>
       <c r="D12">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="E12">
-        <v>4000.74</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -641,19 +641,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>43466.45833333334</v>
+        <v>43466.79166666666</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E13">
-        <v>3496.19</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -661,19 +661,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>43466.5</v>
+        <v>43466.83333333334</v>
       </c>
       <c r="D14">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="E14">
-        <v>2136.9</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -681,19 +681,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>43466.54166666666</v>
+        <v>43466.875</v>
       </c>
       <c r="D15">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="E15">
-        <v>354.9</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -701,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>43466.58333333334</v>
+        <v>43466.91666666666</v>
       </c>
       <c r="D16">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>43466.625</v>
+        <v>43466.95833333334</v>
       </c>
       <c r="D17">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>43466.66666666666</v>
+        <v>43467</v>
       </c>
       <c r="D18">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>43466.70833333334</v>
+        <v>43467.04166666666</v>
       </c>
       <c r="D19">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -781,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>43466.75</v>
+        <v>43467.08333333334</v>
       </c>
       <c r="D20">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>43466.79166666666</v>
+        <v>43467.125</v>
       </c>
       <c r="D21">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>43466.83333333334</v>
+        <v>43467.16666666666</v>
       </c>
       <c r="D22">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>43466.875</v>
+        <v>43467.20833333334</v>
       </c>
       <c r="D23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -857,180 +857,20 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43466.91666666666</v>
+        <v>407</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>28.6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>17219.84</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43466.95833333334</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2">
-        <v>43467</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>43467.04166666666</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>43467.08333333334</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2">
-        <v>43467.125</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2">
-        <v>43467.16666666666</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2">
-        <v>43467.20833333334</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>435</v>
-      </c>
-      <c r="D32">
-        <v>29.5</v>
-      </c>
-      <c r="E32">
-        <v>17373.5</v>
-      </c>
-      <c r="F32">
-        <v>2419</v>
+        <v>2398</v>
       </c>
     </row>
   </sheetData>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -430,7 +430,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3612.35</v>
+        <v>3509.76</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3708.11</v>
+        <v>3597.94</v>
       </c>
       <c r="F3">
         <v>515</v>
@@ -470,7 +470,7 @@
         <v>1.4</v>
       </c>
       <c r="E4">
-        <v>3965.18</v>
+        <v>3839.8</v>
       </c>
       <c r="F4">
         <v>552</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3465.68</v>
+        <v>3369</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -510,7 +510,7 @@
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>2117.35</v>
+        <v>2078.24</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -530,7 +530,7 @@
         <v>3.1</v>
       </c>
       <c r="E7">
-        <v>351.17</v>
+        <v>349.92</v>
       </c>
       <c r="F7">
         <v>51</v>
@@ -867,7 +867,7 @@
         <v>28.6</v>
       </c>
       <c r="E24">
-        <v>17219.84</v>
+        <v>16744.66</v>
       </c>
       <c r="F24">
         <v>2398</v>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -430,7 +430,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3509.76</v>
+        <v>3408.49</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3597.94</v>
+        <v>3489.62</v>
       </c>
       <c r="F3">
         <v>515</v>
@@ -470,7 +470,7 @@
         <v>1.4</v>
       </c>
       <c r="E4">
-        <v>3839.8</v>
+        <v>3715.75</v>
       </c>
       <c r="F4">
         <v>552</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3369</v>
+        <v>3273.77</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -510,7 +510,7 @@
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>2078.24</v>
+        <v>2040.38</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -867,7 +867,7 @@
         <v>28.6</v>
       </c>
       <c r="E24">
-        <v>16744.66</v>
+        <v>16277.93</v>
       </c>
       <c r="F24">
         <v>2398</v>

--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -430,7 +430,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3408.49</v>
+        <v>3410.1</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3273.77</v>
+        <v>3275.29</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -867,7 +867,7 @@
         <v>28.6</v>
       </c>
       <c r="E24">
-        <v>16277.93</v>
+        <v>16281.06</v>
       </c>
       <c r="F24">
         <v>2398</v>
